--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_110__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_110__Reeval_LHS_Modell_1.1.xlsx
@@ -5873,25 +5873,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>13.64459419250488</c:v>
+                  <c:v>13.64459323883057</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>31.74398422241211</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.02575492858887</c:v>
+                  <c:v>21.0257511138916</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>18.21652030944824</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.95481109619141</c:v>
+                  <c:v>32.95481491088867</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>28.09268188476562</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.28193283081055</c:v>
+                  <c:v>29.28193473815918</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>21.49555969238281</c:v>
@@ -5903,10 +5903,10 @@
                   <c:v>14.63146495819092</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.70436477661133</c:v>
+                  <c:v>17.70436859130859</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.830107688903809</c:v>
+                  <c:v>9.830109596252441</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>23.76218795776367</c:v>
@@ -5918,16 +5918,16 @@
                   <c:v>32.74579238891602</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.29184913635254</c:v>
+                  <c:v>24.2918529510498</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.85138893127441</c:v>
+                  <c:v>12.85138702392578</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>20.2633113861084</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.50539970397949</c:v>
+                  <c:v>21.50539588928223</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>24.48013114929199</c:v>
@@ -5954,7 +5954,7 @@
                   <c:v>17.28765869140625</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.423869132995605</c:v>
+                  <c:v>7.423870086669922</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>38.24187088012695</c:v>
@@ -5963,25 +5963,25 @@
                   <c:v>16.00338554382324</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12.32233619689941</c:v>
+                  <c:v>12.32233333587646</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>17.18304634094238</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17.93085098266602</c:v>
+                  <c:v>17.93085289001465</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>18.14360427856445</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>23.2304573059082</c:v>
+                  <c:v>23.23045349121094</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>20.13332939147949</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>13.67302703857422</c:v>
+                  <c:v>13.67302894592285</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>24.34619331359863</c:v>
@@ -5990,7 +5990,7 @@
                   <c:v>23.24911880493164</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>14.89961719512939</c:v>
+                  <c:v>14.89961624145508</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>16.6998462677002</c:v>
@@ -5999,13 +5999,13 @@
                   <c:v>22.77076721191406</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>27.58608245849609</c:v>
+                  <c:v>27.58608436584473</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>30.94245147705078</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>20.0986442565918</c:v>
+                  <c:v>20.09864234924316</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>12.1766300201416</c:v>
@@ -6017,7 +6017,7 @@
                   <c:v>17.22809982299805</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>19.18212127685547</c:v>
+                  <c:v>19.1821231842041</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>23.29512977600098</c:v>
@@ -6026,16 +6026,16 @@
                   <c:v>23.11994934082031</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>16.83386993408203</c:v>
+                  <c:v>16.8338680267334</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>33.44424057006836</c:v>
+                  <c:v>33.44423675537109</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11.73877906799316</c:v>
+                  <c:v>11.73878002166748</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>13.08955574035645</c:v>
+                  <c:v>13.08955669403076</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>32.48905563354492</c:v>
@@ -6050,13 +6050,13 @@
                   <c:v>20.02155113220215</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>20.21942710876465</c:v>
+                  <c:v>20.21942901611328</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>23.17500686645508</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>33.51944351196289</c:v>
+                  <c:v>33.51943969726562</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>19.28336334228516</c:v>
@@ -6071,25 +6071,25 @@
                   <c:v>26.95268630981445</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>26.89363288879395</c:v>
+                  <c:v>26.89363098144531</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>37.32563781738281</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>15.07852077484131</c:v>
+                  <c:v>15.07851886749268</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>21.23002815246582</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>21.29242706298828</c:v>
+                  <c:v>21.29242897033691</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>24.90692520141602</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>15.60403919219971</c:v>
+                  <c:v>15.60404109954834</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>20.26376724243164</c:v>
@@ -6107,7 +6107,7 @@
                   <c:v>6.000003337860107</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>13.01113891601562</c:v>
+                  <c:v>13.01113700866699</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>17.51986503601074</c:v>
@@ -6116,7 +6116,7 @@
                   <c:v>14.33441638946533</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>25.73622703552246</c:v>
+                  <c:v>25.7362232208252</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>35.20560455322266</c:v>
@@ -6137,7 +6137,7 @@
                   <c:v>26.57021331787109</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>17.66104125976562</c:v>
+                  <c:v>17.66104316711426</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>5.822023391723633</c:v>
@@ -6146,7 +6146,7 @@
                   <c:v>28.22869300842285</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>15.742018699646</c:v>
+                  <c:v>15.74201965332031</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>19.17579650878906</c:v>
@@ -6155,13 +6155,13 @@
                   <c:v>18.56588172912598</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>14.50796699523926</c:v>
+                  <c:v>14.50796794891357</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>23.30788230895996</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>16.95514106750488</c:v>
+                  <c:v>16.95513916015625</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>22.79107475280762</c:v>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>13.64459419250488</v>
+        <v>13.64459323883057</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.02575492858887</v>
+        <v>21.0257511138916</v>
       </c>
       <c r="G4">
         <v>78</v>
@@ -6987,7 +6987,7 @@
         <v>47.7145</v>
       </c>
       <c r="F6">
-        <v>32.95481109619141</v>
+        <v>32.95481491088867</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.28193283081055</v>
+        <v>29.28193473815918</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>17.70436477661133</v>
+        <v>17.70436859130859</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>63.3281</v>
       </c>
       <c r="F13">
-        <v>9.830107688903809</v>
+        <v>9.830109596252441</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>46.0307</v>
       </c>
       <c r="F17">
-        <v>24.29184913635254</v>
+        <v>24.2918529510498</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>12.85138893127441</v>
+        <v>12.85138702392578</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>46.3987</v>
       </c>
       <c r="F20">
-        <v>21.50539970397949</v>
+        <v>21.50539588928223</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>7.423869132995605</v>
+        <v>7.423870086669922</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>12.32233619689941</v>
+        <v>12.32233333587646</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>17.93085098266602</v>
+        <v>17.93085289001465</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>51.0217</v>
       </c>
       <c r="F36">
-        <v>23.2304573059082</v>
+        <v>23.23045349121094</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>13.67302703857422</v>
+        <v>13.67302894592285</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>51.9776</v>
       </c>
       <c r="F41">
-        <v>14.89961719512939</v>
+        <v>14.89961624145508</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>27.58608245849609</v>
+        <v>27.58608436584473</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>20.0986442565918</v>
+        <v>20.09864234924316</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>19.18212127685547</v>
+        <v>19.1821231842041</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>16.83386993408203</v>
+        <v>16.8338680267334</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>55.0076</v>
       </c>
       <c r="F54">
-        <v>33.44424057006836</v>
+        <v>33.44423675537109</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>27.296</v>
       </c>
       <c r="F55">
-        <v>11.73877906799316</v>
+        <v>11.73878002166748</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>68.2514</v>
       </c>
       <c r="F56">
-        <v>13.08955574035645</v>
+        <v>13.08955669403076</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>50.0149</v>
       </c>
       <c r="F61">
-        <v>20.21942710876465</v>
+        <v>20.21942901611328</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>48.1148</v>
       </c>
       <c r="F63">
-        <v>33.51944351196289</v>
+        <v>33.51943969726562</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>26.89363288879395</v>
+        <v>26.89363098144531</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>71.8596</v>
       </c>
       <c r="F70">
-        <v>15.07852077484131</v>
+        <v>15.07851886749268</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>52.2351</v>
       </c>
       <c r="F72">
-        <v>21.29242706298828</v>
+        <v>21.29242897033691</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>15.60403919219971</v>
+        <v>15.60404109954834</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>13.01113891601562</v>
+        <v>13.01113700866699</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>25.73622703552246</v>
+        <v>25.7362232208252</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>54.6848</v>
       </c>
       <c r="F90">
-        <v>17.66104125976562</v>
+        <v>17.66104316711426</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>15.742018699646</v>
+        <v>15.74201965332031</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>53.4777</v>
       </c>
       <c r="F96">
-        <v>14.50796699523926</v>
+        <v>14.50796794891357</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>16.95514106750488</v>
+        <v>16.95513916015625</v>
       </c>
     </row>
     <row r="99" spans="1:6">
